--- a/SSPs/Vehicle_Query_Results_SSP/artifacts/service_model/information_model/IEPD/documentation/VehicleQueryResults.xlsx
+++ b/SSPs/Vehicle_Query_Results_SSP/artifacts/service_model/information_model/IEPD/documentation/VehicleQueryResults.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="2500" windowWidth="43720" windowHeight="15520"/>
+    <workbookView xWindow="6000" yWindow="1540" windowWidth="43720" windowHeight="15520"/>
   </bookViews>
   <sheets>
     <sheet name="Vehicle Response" sheetId="3" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="358">
   <si>
     <t>NCIC Code</t>
   </si>
@@ -585,9 +585,6 @@
     <t>NLETS/NLETSInquiryData/nc2:Vehicle</t>
   </si>
   <si>
-    <t>Vehicle Registration Status</t>
-  </si>
-  <si>
     <t>State Element Field Name</t>
   </si>
   <si>
@@ -606,9 +603,6 @@
     <t>Registration Jurisdiction Code</t>
   </si>
   <si>
-    <t>Vehicle Registration Holder</t>
-  </si>
-  <si>
     <t>City</t>
   </si>
   <si>
@@ -672,9 +666,6 @@
     <t>NLETS/NLETSResponseData/nrs2:RegistrationStatus/nc2:AdditionalInformation/nc2:StateElement/nc2:ElementFieldName</t>
   </si>
   <si>
-    <t>NLETS/NLETSResponseData/nrs2:RegistrationStatus</t>
-  </si>
-  <si>
     <t>NLETS/NLETSResponseData/nrs2:RegistrationStatus/nc2:AdditionalInformation/nc2:StateElement/nc2:ElementFieldValue</t>
   </si>
   <si>
@@ -699,9 +690,6 @@
     <t>NLETS/NLETSResponseData/nrs2:RegistrationStatus/nrs2:StandardResponse/nc2:Vehicle/nc:ConveyanceRegistration/nc2:RegistrationHolder/nc:ContactMailingAddress/nc:StructuredAddress/nc:LocationCityName</t>
   </si>
   <si>
-    <t>NLETS/NLETSResponseData/nrs2:RegistrationStatus/nrs2:StandardResponse/nc2:Vehicle/nc:ConveyanceRegistration/nc2:RegistrationHolder</t>
-  </si>
-  <si>
     <t>NLETS/NLETSResponseData/nrs2:RegistrationStatus/nrs2:StandardResponse/nc2:Vehicle/nc:ConveyanceRegistration/nc2:RegistrationHolder/nc:ContactMailingAddress</t>
   </si>
   <si>
@@ -919,6 +907,196 @@
   </si>
   <si>
     <t>vq-results:Exchange/vq-results:NoHitData/vq-results-ext:VehicleRecord</t>
+  </si>
+  <si>
+    <t>vq-results:Exchange/nc:Incident/nc:ActivityDate/nc:Date</t>
+  </si>
+  <si>
+    <t>vq-results:Exchange/nc:Incident/nc:ActivityDescriptionText</t>
+  </si>
+  <si>
+    <t>vq-results:Exchange/nc:Incident/j:ActivityAugmentation/j:CaseLinkage/j:CaseLinkageNumberText</t>
+  </si>
+  <si>
+    <t>vq-results:Exchange/nc:Incident/j:ActivityAugmentation/j:CaseLinkage/j:OrganizationORIIdentification/nc:IdentificationID</t>
+  </si>
+  <si>
+    <t>vq-results:Exchange/nc:Incident/j:ActivityAugmentation/j:CaseNumberText</t>
+  </si>
+  <si>
+    <t>vq-results:Exchange/nc:Incident/j:ActivityAugmentation/j:ActivityDocumentValidator/nc:EntityOrganization</t>
+  </si>
+  <si>
+    <t>vq-results:Exchange/nc:Incident/vq-results-ext:ActivityAugmentation/vq-results-ext:RecordValidationDate/nc:Date</t>
+  </si>
+  <si>
+    <t>vq-results:Exchange/nc:Organization</t>
+  </si>
+  <si>
+    <t>vq-results:Exchange/nc:Organization/nc:OrganizationName</t>
+  </si>
+  <si>
+    <t>vq-results:Exchange/nc:Organization/nc:OrganizationPrimaryContactInformation/nc:ContactTelephoneNumber/nc:FullTelephoneNumber/nc:TelephoneNumberFullID</t>
+  </si>
+  <si>
+    <t>vq-results:Exchange/nc:Organization/j:OrganizationAugmentation/j:OrganizationORIIdentification/nc:IdentificationID</t>
+  </si>
+  <si>
+    <t>vq-results:Exchange/nc:Vehicle</t>
+  </si>
+  <si>
+    <t>vq-results:Exchange/nc:Vehicle/nc:ItemImage/nc:Base64BinaryObject</t>
+  </si>
+  <si>
+    <t>vq-results:Exchange/nc:Vehicle/nc:ItemImage/nc:BinaryDescriptionText</t>
+  </si>
+  <si>
+    <t>vq-results:Exchange/nc:Vehicle/nc:ItemImage/j:ImageAugmentation/j:ImageNCICIdentification/nc:IdentificationID</t>
+  </si>
+  <si>
+    <t>vq-results:Exchange/nc:Vehicle/nc:ItemImage/j:ImageAugmentation/j:ImageCategoryCode</t>
+  </si>
+  <si>
+    <t>vq-results:Exchange/nc:Vehicle/nc:ItemModelYearDate</t>
+  </si>
+  <si>
+    <t>vq-results:Exchange/nc:Vehicle/vq-results-ext:VehicleStyleCode</t>
+  </si>
+  <si>
+    <t>vq-results:Exchange/nc:Vehicle/j:ItemAugmentation/j:ItemNCICIdentification/nc:IdentificationID</t>
+  </si>
+  <si>
+    <t>vq-results:Exchange/nc:Vehicle/nc:VehicleIdentification/nc:IdentificationID</t>
+  </si>
+  <si>
+    <t>vq-results:Exchange/nc:Vehicle/vq-results-ext:VehicleMakeCodeText</t>
+  </si>
+  <si>
+    <t>vq-results:Exchange/nc:Vehicle/vq-results-ext:VehicleModelCodeText</t>
+  </si>
+  <si>
+    <t>vq-results:Exchange/nc:Vehicle/nc:ItemOwnerAppliedID</t>
+  </si>
+  <si>
+    <t>vq-results:Exchange/nc:Vehicle/vq-results-ext:ConveyanceColorPrimaryCodeText
+vq-results:Exchange/nc:Vehicle/j:ConveyanceColorSecondaryCode</t>
+  </si>
+  <si>
+    <t>vq-results:Exchange/nc:Vehicle/nc:ItemStyleText</t>
+  </si>
+  <si>
+    <t>vq-results:Exchange/nc:Vehicle/nc:ItemModelName</t>
+  </si>
+  <si>
+    <t>vq-results:Exchange/nc:Vehicle/j:VehicleAugmentation/j:VehicleOwnershipNICBText</t>
+  </si>
+  <si>
+    <t>vq-results:Exchange/j:ConveyanceRegistration</t>
+  </si>
+  <si>
+    <t>vq-results:Exchange/j:ConveyanceRegistration/j:ConveyanceRegistrationPlateIdentification/nc:IdentificationID</t>
+  </si>
+  <si>
+    <t>vq-results:Exchange/j:ConveyanceRegistration/j:ConveyanceRegistrationPlateIdentification/nc:IdentificationJurisdiction/j:JurisdictionNCICLSTACode</t>
+  </si>
+  <si>
+    <t>vq-results:Exchange/j:ConveyanceRegistration/j:RegistrationIdentification/nc:IdentificationID</t>
+  </si>
+  <si>
+    <t>vq-results:Exchange/j:ConveyanceRegistration/j:RegistrationIdentification/nc:IdentificationJurisdiction/j:LocationStateNCICLISCode</t>
+  </si>
+  <si>
+    <t>vq-results:Exchange/j:ConveyanceRegistration/j:RegistrationEffectiveDate/nc:Date</t>
+  </si>
+  <si>
+    <t>vq-results:Exchange/j:ConveyanceRegistration/j:RegistrationExpirationDate/nc:Date</t>
+  </si>
+  <si>
+    <t>vq-results:Exchange/j:ConveyanceRegistration/j:RegistrationStatus/vq-results-ext:StateRegistrationStatusFieldName</t>
+  </si>
+  <si>
+    <t>vq-results:Exchange/j:ConveyanceRegistration/j:RegistrationStatus/vq-results-ext:StateRegistrationStatusFieldValue</t>
+  </si>
+  <si>
+    <t>vq-results:Exchange/j:ConveyanceRegistration/j:ConveyanceRegistrationDecal/nc:DecalYearDate</t>
+  </si>
+  <si>
+    <t>vq-results:Exchange/j:ConveyanceRegistration/vq-results-ext:ConveyanceRegistrationPlateCategoryCode</t>
+  </si>
+  <si>
+    <t>License Plate Type (text)</t>
+  </si>
+  <si>
+    <t>vq-results:Exchange/j:ConveyanceRegistration/j:ConveyanceRegistrationPlateCategoryText</t>
+  </si>
+  <si>
+    <t>vq-results:Exchange/j:ConveyanceRegistration/j:ConveyanceRegistrationGrossWeightMeasure/nc:MeasureValueText</t>
+  </si>
+  <si>
+    <t>vq-results:Exchange/vq-results-ext:InvestigativeInterest/nc:ActivityDate/nc:Date</t>
+  </si>
+  <si>
+    <t>vq-results:Exchange/vq-results-ext:InvestigativeInterest/nc:ActivityDescriptionText</t>
+  </si>
+  <si>
+    <t>vq-results:Exchange/vq-results-ext:InvestigativeInterest/j:ActivityAugmentation/j:CaseNumberText</t>
+  </si>
+  <si>
+    <t>vq-results:Exchange/vq-results-ext:InvestigativeInterest/nc:IncidentJurisdictionalOrganization</t>
+  </si>
+  <si>
+    <t>vq-results:Exchange/nc:Address/nc:LocationStreet/nc:StreetFullText</t>
+  </si>
+  <si>
+    <t>vq-results:Exchange/nc:Address/nc:LocationCityName</t>
+  </si>
+  <si>
+    <t>vq-results:Exchange/nc:Address/nc:LocationStateName</t>
+  </si>
+  <si>
+    <t>vq-results:Exchange/nc:Address/nc:LocationPostalCode</t>
+  </si>
+  <si>
+    <t>vq-results:Exchange/nc:Person/nc:PersonBirthDate/nc:Date</t>
+  </si>
+  <si>
+    <t>vq-results:Exchange/nc:Person/nc:PersonName/nc:PersonGivenName</t>
+  </si>
+  <si>
+    <t>Person (Registrant/Driver)</t>
+  </si>
+  <si>
+    <t>vq-results:Exchange/nc:Person</t>
+  </si>
+  <si>
+    <t>vq-results:Exchange/nc:Person/nc:PersonName/nc:PersonMiddleName</t>
+  </si>
+  <si>
+    <t>vq-results:Exchange/nc:Person/nc:PersonName/nc:PersonSurName</t>
+  </si>
+  <si>
+    <t>vq-results:Exchange/nc:Person/nc:PersonName/nc:PersonNameSuffixText</t>
+  </si>
+  <si>
+    <t>vq-results:Exchange/nc:Person/j:PersonSexCode</t>
+  </si>
+  <si>
+    <t>vq-results:Exchange/nc:PersonResidenceAssociation/nc:Location/nc:Address</t>
+  </si>
+  <si>
+    <t>vq-results:Exchange/nc:ContactInformationAssociation/nc:ContactInformation</t>
+  </si>
+  <si>
+    <t>vq-results:Exchange/nc:ContactInformation/nc:ContactMailingAddress/nc:LocationStreet/nc:StreetFullText</t>
+  </si>
+  <si>
+    <t>vq-results:Exchange/nc:ContactInformation/nc:ContactMailingAddress/nc:LocationCityName</t>
+  </si>
+  <si>
+    <t>vq-results:Exchange/nc:ContactInformation/nc:ContactMailingAddress/nc:LocationStateName</t>
+  </si>
+  <si>
+    <t>vq-results:Exchange/nc:ContactInformation/nc:ContactMailingAddress/nc:LocationPostalCode</t>
   </si>
 </sst>
 </file>
@@ -1028,7 +1206,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="67">
+  <cellStyleXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1096,8 +1274,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1163,11 +1349,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1187,24 +1383,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="67">
+  <cellStyles count="75">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1238,6 +1418,10 @@
     <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1271,6 +1455,10 @@
     <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1575,15 +1763,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L124"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H108" sqref="H108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="11.5" style="9" customWidth="1"/>
     <col min="2" max="7" width="16" style="9" customWidth="1"/>
-    <col min="8" max="8" width="79.1640625" style="9" customWidth="1"/>
+    <col min="8" max="8" width="88.83203125" style="9" customWidth="1"/>
     <col min="9" max="9" width="14.6640625" style="4" customWidth="1"/>
     <col min="10" max="10" width="27" style="4" customWidth="1"/>
     <col min="11" max="11" width="90.5" style="4" customWidth="1"/>
@@ -1592,84 +1780,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" customHeight="1">
-      <c r="A1" s="25" t="s">
-        <v>258</v>
-      </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
+      <c r="A1" s="29" t="s">
+        <v>254</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
       <c r="F1" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="G1" s="29" t="s">
-        <v>260</v>
+        <v>255</v>
+      </c>
+      <c r="G1" s="33" t="s">
+        <v>256</v>
       </c>
       <c r="H1" s="2"/>
       <c r="I1" s="3"/>
     </row>
     <row r="2" spans="1:12" s="9" customFormat="1" ht="23" customHeight="1">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="23" t="s">
+        <v>245</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>246</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>247</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>248</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>244</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="B2" s="24" t="s">
-        <v>250</v>
-      </c>
-      <c r="C2" s="24" t="s">
-        <v>251</v>
-      </c>
-      <c r="D2" s="24" t="s">
-        <v>252</v>
-      </c>
-      <c r="E2" s="24" t="s">
-        <v>248</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="G2" s="30"/>
+      <c r="G2" s="34"/>
       <c r="H2" s="6" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>0</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="9" customFormat="1">
       <c r="A3" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>264</v>
-      </c>
-      <c r="I3" s="28" t="s">
+        <v>260</v>
+      </c>
+      <c r="I3" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="J3" s="28"/>
+      <c r="J3" s="32"/>
       <c r="K3" s="11" t="s">
         <v>112</v>
       </c>
@@ -1679,28 +1867,28 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="H4" s="16" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="I4" s="15" t="s">
         <v>4</v>
@@ -1717,28 +1905,28 @@
     </row>
     <row r="5" spans="1:12" ht="24">
       <c r="A5" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="H5" s="16" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="I5" s="15" t="s">
         <v>6</v>
@@ -1755,22 +1943,22 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G6" s="16"/>
       <c r="H6" s="16"/>
@@ -1789,13 +1977,13 @@
     </row>
     <row r="7" spans="1:12">
       <c r="E7" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="J7" s="4" t="s">
         <v>129</v>
@@ -1809,13 +1997,13 @@
     </row>
     <row r="8" spans="1:12" ht="24">
       <c r="F8" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="J8" s="15" t="s">
         <v>171</v>
@@ -1829,7 +2017,7 @@
     </row>
     <row r="9" spans="1:12">
       <c r="F9" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
@@ -1845,19 +2033,19 @@
     </row>
     <row r="10" spans="1:12">
       <c r="B10" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="J10" s="15" t="s">
         <v>7</v>
@@ -1873,13 +2061,13 @@
       <c r="D11" s="22"/>
       <c r="G11" s="10"/>
       <c r="H11" s="10" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="L11" s="16"/>
     </row>
@@ -1897,19 +2085,19 @@
     </row>
     <row r="13" spans="1:12" ht="15" customHeight="1">
       <c r="B13" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="I13" s="21" t="s">
         <v>8</v>
@@ -1922,21 +2110,21 @@
     </row>
     <row r="14" spans="1:12">
       <c r="B14" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>270</v>
-      </c>
-      <c r="I14" s="36"/>
+        <v>266</v>
+      </c>
+      <c r="I14" s="25"/>
       <c r="J14" s="4" t="s">
         <v>40</v>
       </c>
@@ -1947,32 +2135,32 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="H15" s="16" t="s">
-        <v>296</v>
-      </c>
-      <c r="I15" s="28" t="s">
-        <v>256</v>
-      </c>
-      <c r="J15" s="28"/>
+        <v>292</v>
+      </c>
+      <c r="I15" s="32" t="s">
+        <v>252</v>
+      </c>
+      <c r="J15" s="32"/>
       <c r="K15" s="17" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="L15" s="16"/>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="H16" s="16" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="I16" s="18"/>
       <c r="J16" s="15" t="s">
@@ -1985,13 +2173,13 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="H17" s="16" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="I17" s="18"/>
       <c r="J17" s="4" t="s">
@@ -2004,18 +2192,18 @@
     </row>
     <row r="18" spans="1:12">
       <c r="E18" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>266</v>
-      </c>
-      <c r="I18" s="28" t="s">
+        <v>262</v>
+      </c>
+      <c r="I18" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="J18" s="28"/>
+      <c r="J18" s="32"/>
       <c r="K18" s="17" t="s">
         <v>131</v>
       </c>
@@ -2025,16 +2213,16 @@
     </row>
     <row r="19" spans="1:12">
       <c r="E19" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="I19" s="18"/>
       <c r="J19" s="15" t="s">
@@ -2049,13 +2237,13 @@
     </row>
     <row r="20" spans="1:12">
       <c r="E20" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="I20" s="18"/>
       <c r="J20" s="4" t="s">
@@ -2070,27 +2258,27 @@
     </row>
     <row r="21" spans="1:12">
       <c r="B21" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>273</v>
-      </c>
-      <c r="I21" s="27" t="s">
+        <v>269</v>
+      </c>
+      <c r="I21" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="J21" s="27"/>
+      <c r="J21" s="31"/>
       <c r="K21" s="17" t="s">
         <v>113</v>
       </c>
@@ -2100,13 +2288,13 @@
     </row>
     <row r="22" spans="1:12">
       <c r="E22" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="I22" s="19"/>
       <c r="J22" s="15" t="s">
@@ -2121,19 +2309,19 @@
     </row>
     <row r="23" spans="1:12">
       <c r="B23" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="H23" s="10" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="I23" s="19"/>
       <c r="J23" s="4" t="s">
@@ -2148,13 +2336,13 @@
     </row>
     <row r="24" spans="1:12">
       <c r="E24" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="I24" s="20" t="s">
         <v>63</v>
@@ -2171,13 +2359,13 @@
     </row>
     <row r="25" spans="1:12">
       <c r="E25" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G25" s="15" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="I25" s="20" t="s">
         <v>6</v>
@@ -2194,13 +2382,13 @@
     </row>
     <row r="26" spans="1:12">
       <c r="E26" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G26" s="15" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="H26" s="10" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="I26" s="20" t="s">
         <v>68</v>
@@ -2217,13 +2405,13 @@
     </row>
     <row r="27" spans="1:12">
       <c r="E27" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G27" s="15" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="H27" s="10" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="I27" s="20"/>
       <c r="J27" s="15" t="s">
@@ -2238,13 +2426,13 @@
     </row>
     <row r="28" spans="1:12">
       <c r="E28" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="H28" s="10" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="I28" s="20" t="s">
         <v>158</v>
@@ -2261,19 +2449,19 @@
     </row>
     <row r="29" spans="1:12">
       <c r="B29" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="H29" s="10" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="I29" s="4" t="s">
         <v>9</v>
@@ -2290,13 +2478,13 @@
     </row>
     <row r="30" spans="1:12">
       <c r="E30" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G30" s="15" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="H30" s="10" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="I30" s="20"/>
       <c r="J30" s="15" t="s">
@@ -2311,13 +2499,13 @@
     </row>
     <row r="31" spans="1:12">
       <c r="E31" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="H31" s="10" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="I31" s="4" t="s">
         <v>75</v>
@@ -2334,13 +2522,13 @@
     </row>
     <row r="32" spans="1:12">
       <c r="E32" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="H32" s="10" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="I32" s="19"/>
       <c r="J32" s="4" t="s">
@@ -2355,13 +2543,13 @@
     </row>
     <row r="33" spans="2:12" ht="24">
       <c r="E33" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="H33" s="10" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="I33" s="20" t="s">
         <v>78</v>
@@ -2378,13 +2566,13 @@
     </row>
     <row r="34" spans="2:12" ht="24">
       <c r="E34" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="H34" s="10" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="I34" s="20"/>
       <c r="J34" s="4" t="s">
@@ -2399,13 +2587,13 @@
     </row>
     <row r="35" spans="2:12">
       <c r="E35" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G35" s="15" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="H35" s="10" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="I35" s="20" t="s">
         <v>69</v>
@@ -2422,17 +2610,17 @@
     </row>
     <row r="36" spans="2:12" ht="36">
       <c r="E36" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="H36" s="10" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I36" s="20"/>
       <c r="J36" s="4" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="K36" s="4" t="s">
         <v>128</v>
@@ -2443,22 +2631,22 @@
     </row>
     <row r="37" spans="2:12">
       <c r="B37" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="H37" s="10" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="I37" s="4" t="s">
         <v>42</v>
@@ -2475,22 +2663,22 @@
     </row>
     <row r="38" spans="2:12" ht="24">
       <c r="B38" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="H38" s="10" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="I38" s="20"/>
       <c r="J38" s="4" t="s">
@@ -2505,22 +2693,22 @@
     </row>
     <row r="39" spans="2:12">
       <c r="B39" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="H39" s="10" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="I39" s="21" t="s">
         <v>82</v>
@@ -2535,18 +2723,20 @@
     </row>
     <row r="40" spans="2:12">
       <c r="B40" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="H40" s="10"/>
+        <v>243</v>
+      </c>
+      <c r="H40" s="10" t="s">
+        <v>295</v>
+      </c>
       <c r="I40" s="4" t="s">
         <v>83</v>
       </c>
@@ -2562,21 +2752,23 @@
     </row>
     <row r="41" spans="2:12">
       <c r="B41" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="H41" s="10"/>
+        <v>243</v>
+      </c>
+      <c r="H41" s="10" t="s">
+        <v>296</v>
+      </c>
       <c r="I41" s="4" t="s">
         <v>12</v>
       </c>
@@ -2592,18 +2784,20 @@
     </row>
     <row r="42" spans="2:12">
       <c r="B42" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="H42" s="10"/>
+        <v>243</v>
+      </c>
+      <c r="H42" s="10" t="s">
+        <v>297</v>
+      </c>
       <c r="I42" s="4" t="s">
         <v>148</v>
       </c>
@@ -2617,20 +2811,22 @@
         <v>167</v>
       </c>
     </row>
-    <row r="43" spans="2:12">
+    <row r="43" spans="2:12" ht="24">
       <c r="B43" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="H43" s="10"/>
+        <v>243</v>
+      </c>
+      <c r="H43" s="10" t="s">
+        <v>298</v>
+      </c>
       <c r="I43" s="4" t="s">
         <v>149</v>
       </c>
@@ -2646,21 +2842,23 @@
     </row>
     <row r="44" spans="2:12">
       <c r="B44" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="H44" s="10"/>
+        <v>243</v>
+      </c>
+      <c r="H44" s="10" t="s">
+        <v>299</v>
+      </c>
       <c r="I44" s="4" t="s">
         <v>11</v>
       </c>
@@ -2676,12 +2874,14 @@
     </row>
     <row r="45" spans="2:12">
       <c r="E45" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="H45" s="10"/>
+        <v>243</v>
+      </c>
+      <c r="H45" s="10" t="s">
+        <v>300</v>
+      </c>
       <c r="J45" s="4" t="s">
         <v>136</v>
       </c>
@@ -2694,12 +2894,14 @@
     </row>
     <row r="46" spans="2:12">
       <c r="E46" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="H46" s="10"/>
+        <v>243</v>
+      </c>
+      <c r="H46" s="10" t="s">
+        <v>301</v>
+      </c>
       <c r="I46" s="4" t="s">
         <v>85</v>
       </c>
@@ -2715,12 +2917,14 @@
     </row>
     <row r="47" spans="2:12">
       <c r="D47" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="H47" s="10"/>
+        <v>243</v>
+      </c>
+      <c r="H47" s="10" t="s">
+        <v>295</v>
+      </c>
       <c r="I47" s="4" t="s">
         <v>109</v>
       </c>
@@ -2736,12 +2940,14 @@
     </row>
     <row r="48" spans="2:12">
       <c r="E48" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G48" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="H48" s="10"/>
+        <v>243</v>
+      </c>
+      <c r="H48" s="10" t="s">
+        <v>302</v>
+      </c>
       <c r="I48" s="21" t="s">
         <v>138</v>
       </c>
@@ -2755,12 +2961,14 @@
     </row>
     <row r="49" spans="5:12">
       <c r="E49" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="H49" s="10"/>
+        <v>243</v>
+      </c>
+      <c r="H49" s="10" t="s">
+        <v>303</v>
+      </c>
       <c r="I49" s="4" t="s">
         <v>84</v>
       </c>
@@ -2776,12 +2984,14 @@
     </row>
     <row r="50" spans="5:12">
       <c r="E50" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G50" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="H50" s="10"/>
+        <v>243</v>
+      </c>
+      <c r="H50" s="10" t="s">
+        <v>302</v>
+      </c>
       <c r="I50" s="21" t="s">
         <v>90</v>
       </c>
@@ -2795,12 +3005,14 @@
     </row>
     <row r="51" spans="5:12">
       <c r="E51" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="H51" s="10"/>
+        <v>243</v>
+      </c>
+      <c r="H51" s="10" t="s">
+        <v>303</v>
+      </c>
       <c r="I51" s="4" t="s">
         <v>106</v>
       </c>
@@ -2814,14 +3026,16 @@
         <v>167</v>
       </c>
     </row>
-    <row r="52" spans="5:12" ht="24">
+    <row r="52" spans="5:12" ht="36">
       <c r="E52" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="H52" s="10"/>
+        <v>243</v>
+      </c>
+      <c r="H52" s="10" t="s">
+        <v>304</v>
+      </c>
       <c r="I52" s="4" t="s">
         <v>91</v>
       </c>
@@ -2837,12 +3051,14 @@
     </row>
     <row r="53" spans="5:12" ht="24">
       <c r="E53" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="H53" s="10"/>
+        <v>243</v>
+      </c>
+      <c r="H53" s="10" t="s">
+        <v>305</v>
+      </c>
       <c r="I53" s="4" t="s">
         <v>92</v>
       </c>
@@ -2858,12 +3074,14 @@
     </row>
     <row r="54" spans="5:12">
       <c r="E54" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G54" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="H54" s="10"/>
+        <v>243</v>
+      </c>
+      <c r="H54" s="10" t="s">
+        <v>302</v>
+      </c>
       <c r="I54" s="21" t="s">
         <v>96</v>
       </c>
@@ -2877,12 +3095,14 @@
     </row>
     <row r="55" spans="5:12">
       <c r="E55" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="H55" s="10"/>
+        <v>243</v>
+      </c>
+      <c r="H55" s="10" t="s">
+        <v>305</v>
+      </c>
       <c r="I55" s="4" t="s">
         <v>97</v>
       </c>
@@ -2898,12 +3118,14 @@
     </row>
     <row r="56" spans="5:12">
       <c r="E56" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="H56" s="10"/>
+        <v>243</v>
+      </c>
+      <c r="H56" s="10" t="s">
+        <v>306</v>
+      </c>
       <c r="I56" s="21" t="s">
         <v>100</v>
       </c>
@@ -2917,12 +3139,14 @@
     </row>
     <row r="57" spans="5:12">
       <c r="E57" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="H57" s="10"/>
+        <v>243</v>
+      </c>
+      <c r="H57" s="10" t="s">
+        <v>307</v>
+      </c>
       <c r="I57" s="15"/>
       <c r="J57" s="4" t="s">
         <v>101</v>
@@ -2936,12 +3160,14 @@
     </row>
     <row r="58" spans="5:12">
       <c r="E58" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="H58" s="10"/>
+        <v>243</v>
+      </c>
+      <c r="H58" s="10" t="s">
+        <v>308</v>
+      </c>
       <c r="I58" s="15" t="s">
         <v>12</v>
       </c>
@@ -2957,12 +3183,14 @@
     </row>
     <row r="59" spans="5:12">
       <c r="E59" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="H59" s="10"/>
+        <v>243</v>
+      </c>
+      <c r="H59" s="10" t="s">
+        <v>309</v>
+      </c>
       <c r="I59" s="15" t="s">
         <v>48</v>
       </c>
@@ -2978,12 +3206,14 @@
     </row>
     <row r="60" spans="5:12">
       <c r="E60" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="H60" s="10"/>
+        <v>243</v>
+      </c>
+      <c r="H60" s="10" t="s">
+        <v>310</v>
+      </c>
       <c r="I60" s="15" t="s">
         <v>49</v>
       </c>
@@ -2999,12 +3229,14 @@
     </row>
     <row r="61" spans="5:12">
       <c r="E61" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="H61" s="10"/>
+        <v>243</v>
+      </c>
+      <c r="H61" s="10" t="s">
+        <v>311</v>
+      </c>
       <c r="I61" s="20" t="s">
         <v>17</v>
       </c>
@@ -3020,12 +3252,14 @@
     </row>
     <row r="62" spans="5:12">
       <c r="E62" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="H62" s="10"/>
+        <v>243</v>
+      </c>
+      <c r="H62" s="10" t="s">
+        <v>312</v>
+      </c>
       <c r="I62" s="15" t="s">
         <v>20</v>
       </c>
@@ -3041,12 +3275,14 @@
     </row>
     <row r="63" spans="5:12">
       <c r="E63" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="H63" s="10"/>
+        <v>243</v>
+      </c>
+      <c r="H63" s="10" t="s">
+        <v>313</v>
+      </c>
       <c r="I63" s="15" t="s">
         <v>69</v>
       </c>
@@ -3062,12 +3298,14 @@
     </row>
     <row r="64" spans="5:12">
       <c r="E64" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="H64" s="10"/>
+        <v>243</v>
+      </c>
+      <c r="H64" s="10" t="s">
+        <v>314</v>
+      </c>
       <c r="I64" s="15" t="s">
         <v>22</v>
       </c>
@@ -3083,12 +3321,14 @@
     </row>
     <row r="65" spans="1:12">
       <c r="E65" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="H65" s="10"/>
+        <v>243</v>
+      </c>
+      <c r="H65" s="10" t="s">
+        <v>315</v>
+      </c>
       <c r="I65" s="15" t="s">
         <v>25</v>
       </c>
@@ -3104,12 +3344,14 @@
     </row>
     <row r="66" spans="1:12">
       <c r="E66" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="H66" s="10"/>
+        <v>243</v>
+      </c>
+      <c r="H66" s="10" t="s">
+        <v>316</v>
+      </c>
       <c r="I66" s="15" t="s">
         <v>27</v>
       </c>
@@ -3125,28 +3367,30 @@
     </row>
     <row r="67" spans="1:12">
       <c r="A67" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="E67" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="H67" s="10"/>
-      <c r="I67" s="27" t="s">
+        <v>243</v>
+      </c>
+      <c r="H67" s="10" t="s">
+        <v>306</v>
+      </c>
+      <c r="I67" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="J67" s="27"/>
+      <c r="J67" s="31"/>
       <c r="K67" s="17" t="s">
         <v>115</v>
       </c>
@@ -3156,15 +3400,17 @@
     </row>
     <row r="68" spans="1:12">
       <c r="B68" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="E68" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="H68" s="10"/>
+        <v>243</v>
+      </c>
+      <c r="H68" s="10" t="s">
+        <v>317</v>
+      </c>
       <c r="I68" s="4" t="s">
         <v>47</v>
       </c>
@@ -3180,24 +3426,26 @@
     </row>
     <row r="69" spans="1:12" ht="24">
       <c r="B69" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="E69" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F69" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="H69" s="10"/>
+        <v>243</v>
+      </c>
+      <c r="H69" s="10" t="s">
+        <v>318</v>
+      </c>
       <c r="I69" s="13" t="s">
         <v>15</v>
       </c>
@@ -3213,18 +3461,20 @@
     </row>
     <row r="70" spans="1:12">
       <c r="B70" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="E70" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G70" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="H70" s="10"/>
+        <v>243</v>
+      </c>
+      <c r="H70" s="10" t="s">
+        <v>309</v>
+      </c>
       <c r="I70" s="4" t="s">
         <v>48</v>
       </c>
@@ -3240,18 +3490,20 @@
     </row>
     <row r="71" spans="1:12">
       <c r="B71" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="E71" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G71" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="H71" s="10"/>
+        <v>243</v>
+      </c>
+      <c r="H71" s="10" t="s">
+        <v>310</v>
+      </c>
       <c r="I71" s="4" t="s">
         <v>49</v>
       </c>
@@ -3267,24 +3519,26 @@
     </row>
     <row r="72" spans="1:12" ht="24">
       <c r="B72" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="E72" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F72" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G72" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="H72" s="10"/>
+        <v>243</v>
+      </c>
+      <c r="H72" s="10" t="s">
+        <v>311</v>
+      </c>
       <c r="I72" s="13" t="s">
         <v>17</v>
       </c>
@@ -3300,21 +3554,23 @@
     </row>
     <row r="73" spans="1:12">
       <c r="B73" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="E73" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G73" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="H73" s="10"/>
+        <v>243</v>
+      </c>
+      <c r="H73" s="10" t="s">
+        <v>312</v>
+      </c>
       <c r="I73" s="4" t="s">
         <v>20</v>
       </c>
@@ -3330,15 +3586,17 @@
     </row>
     <row r="74" spans="1:12" ht="24">
       <c r="B74" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F74" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G74" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="H74" s="10"/>
+        <v>243</v>
+      </c>
+      <c r="H74" s="10" t="s">
+        <v>319</v>
+      </c>
       <c r="I74" s="13"/>
       <c r="J74" s="4" t="s">
         <v>178</v>
@@ -3352,27 +3610,29 @@
     </row>
     <row r="75" spans="1:12" ht="24">
       <c r="A75" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G75" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="H75" s="10"/>
+        <v>243</v>
+      </c>
+      <c r="H75" s="10" t="s">
+        <v>314</v>
+      </c>
       <c r="I75" s="13" t="s">
         <v>22</v>
       </c>
@@ -3388,27 +3648,29 @@
     </row>
     <row r="76" spans="1:12" ht="24">
       <c r="A76" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="E76" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F76" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G76" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="H76" s="10"/>
+        <v>243</v>
+      </c>
+      <c r="H76" s="10" t="s">
+        <v>315</v>
+      </c>
       <c r="I76" s="13" t="s">
         <v>25</v>
       </c>
@@ -3424,24 +3686,26 @@
     </row>
     <row r="77" spans="1:12" ht="24">
       <c r="B77" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D77" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="E77" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F77" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G77" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="H77" s="10"/>
+        <v>243</v>
+      </c>
+      <c r="H77" s="10" t="s">
+        <v>316</v>
+      </c>
       <c r="I77" s="13" t="s">
         <v>27</v>
       </c>
@@ -3457,12 +3721,14 @@
     </row>
     <row r="78" spans="1:12" ht="24">
       <c r="F78" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G78" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="H78" s="10"/>
+        <v>243</v>
+      </c>
+      <c r="H78" s="10" t="s">
+        <v>320</v>
+      </c>
       <c r="I78" s="13"/>
       <c r="J78" s="4" t="s">
         <v>183</v>
@@ -3476,12 +3742,14 @@
     </row>
     <row r="79" spans="1:12">
       <c r="B79" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G79" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="H79" s="10"/>
+        <v>243</v>
+      </c>
+      <c r="H79" s="10" t="s">
+        <v>321</v>
+      </c>
       <c r="I79" s="15" t="s">
         <v>50</v>
       </c>
@@ -3497,16 +3765,18 @@
     </row>
     <row r="80" spans="1:12">
       <c r="E80" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G80" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="H80" s="10"/>
-      <c r="I80" s="27" t="s">
+        <v>243</v>
+      </c>
+      <c r="H80" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="I80" s="31" t="s">
         <v>144</v>
       </c>
-      <c r="J80" s="27"/>
+      <c r="J80" s="31"/>
       <c r="K80" s="17" t="s">
         <v>116</v>
       </c>
@@ -3516,12 +3786,14 @@
     </row>
     <row r="81" spans="1:12">
       <c r="E81" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G81" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="H81" s="10"/>
+        <v>243</v>
+      </c>
+      <c r="H81" s="10" t="s">
+        <v>323</v>
+      </c>
       <c r="I81" s="4" t="s">
         <v>33</v>
       </c>
@@ -3535,14 +3807,16 @@
         <v>167</v>
       </c>
     </row>
-    <row r="82" spans="1:12">
+    <row r="82" spans="1:12" ht="36">
       <c r="E82" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G82" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="H82" s="10"/>
+        <v>243</v>
+      </c>
+      <c r="H82" s="10" t="s">
+        <v>324</v>
+      </c>
       <c r="I82" s="4" t="s">
         <v>36</v>
       </c>
@@ -3558,21 +3832,23 @@
     </row>
     <row r="83" spans="1:12">
       <c r="B83" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="E83" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G83" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="H83" s="10"/>
+        <v>243</v>
+      </c>
+      <c r="H83" s="10" t="s">
+        <v>322</v>
+      </c>
       <c r="I83" s="21" t="s">
         <v>29</v>
       </c>
@@ -3586,24 +3862,26 @@
     </row>
     <row r="84" spans="1:12">
       <c r="A84" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D84" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="E84" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G84" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="H84" s="10"/>
+        <v>243</v>
+      </c>
+      <c r="H84" s="10" t="s">
+        <v>331</v>
+      </c>
       <c r="I84" s="4" t="s">
         <v>30</v>
       </c>
@@ -3619,27 +3897,29 @@
     </row>
     <row r="85" spans="1:12" ht="24">
       <c r="A85" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D85" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="E85" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F85" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G85" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="H85" s="10"/>
+        <v>243</v>
+      </c>
+      <c r="H85" s="10" t="s">
+        <v>323</v>
+      </c>
       <c r="I85" s="13" t="s">
         <v>33</v>
       </c>
@@ -3653,26 +3933,28 @@
         <v>184</v>
       </c>
     </row>
-    <row r="86" spans="1:12">
+    <row r="86" spans="1:12" ht="36">
       <c r="A86" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="E86" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G86" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="H86" s="10"/>
+        <v>243</v>
+      </c>
+      <c r="H86" s="10" t="s">
+        <v>324</v>
+      </c>
       <c r="I86" s="4" t="s">
         <v>36</v>
       </c>
@@ -3686,27 +3968,26 @@
         <v>167</v>
       </c>
     </row>
-    <row r="87" spans="1:12" ht="24">
+    <row r="87" spans="1:12">
       <c r="B87" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D87" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="E87" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="F87" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G87" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="H87" s="10"/>
-      <c r="I87" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="H87" s="10" t="s">
+        <v>332</v>
+      </c>
+      <c r="I87" s="15" t="s">
         <v>38</v>
       </c>
       <c r="J87" s="4" t="s">
@@ -3715,272 +3996,292 @@
       <c r="K87" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="L87" s="12" t="s">
+      <c r="L87" s="16" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" ht="24">
+      <c r="F88" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="G88" s="10"/>
+      <c r="H88" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="I88" s="13"/>
+      <c r="J88" s="13" t="s">
+        <v>333</v>
+      </c>
+      <c r="L88" s="12" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="88" spans="1:12">
-      <c r="E88" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="G88" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="H88" s="10"/>
-      <c r="I88" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="J88" s="27"/>
-      <c r="K88" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="L88" s="4" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12">
-      <c r="E89" s="9" t="s">
-        <v>247</v>
+    <row r="89" spans="1:12" ht="24">
+      <c r="F89" s="9" t="s">
+        <v>243</v>
       </c>
       <c r="G89" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="H89" s="10"/>
-      <c r="I89" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="J89" s="4" t="s">
-        <v>45</v>
+        <v>243</v>
+      </c>
+      <c r="H89" s="10" t="s">
+        <v>329</v>
+      </c>
+      <c r="I89" s="13"/>
+      <c r="J89" s="13" t="s">
+        <v>187</v>
       </c>
       <c r="K89" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="L89" s="4" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12">
-      <c r="E90" s="9" t="s">
-        <v>247</v>
+        <v>167</v>
+      </c>
+      <c r="L89" s="13" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" ht="24">
+      <c r="F90" s="9" t="s">
+        <v>243</v>
       </c>
       <c r="G90" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="H90" s="10"/>
-      <c r="I90" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J90" s="4" t="s">
-        <v>81</v>
+        <v>243</v>
+      </c>
+      <c r="H90" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="I90" s="13"/>
+      <c r="J90" s="13" t="s">
+        <v>188</v>
       </c>
       <c r="K90" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="L90" s="4" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12">
-      <c r="E91" s="9" t="s">
-        <v>247</v>
+        <v>167</v>
+      </c>
+      <c r="L90" s="13" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" ht="24">
+      <c r="F91" s="9" t="s">
+        <v>243</v>
       </c>
       <c r="G91" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="H91" s="10"/>
-      <c r="I91" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="J91" s="4" t="s">
-        <v>155</v>
+        <v>243</v>
+      </c>
+      <c r="H91" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="I91" s="13"/>
+      <c r="J91" s="13" t="s">
+        <v>189</v>
       </c>
       <c r="K91" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="L91" s="4" t="s">
-        <v>167</v>
+        <v>167</v>
+      </c>
+      <c r="L91" s="13" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="92" spans="1:12" ht="24">
-      <c r="E92" s="9" t="s">
-        <v>247</v>
+      <c r="F92" s="9" t="s">
+        <v>243</v>
       </c>
       <c r="G92" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="H92" s="10"/>
-      <c r="I92" s="20"/>
-      <c r="J92" s="4" t="s">
-        <v>147</v>
+        <v>243</v>
+      </c>
+      <c r="H92" s="10" t="s">
+        <v>327</v>
+      </c>
+      <c r="I92" s="13"/>
+      <c r="J92" s="13" t="s">
+        <v>190</v>
       </c>
       <c r="K92" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="L92" s="4" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" ht="14">
+        <v>167</v>
+      </c>
+      <c r="L92" s="13" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" ht="24">
+      <c r="F93" s="9" t="s">
+        <v>243</v>
+      </c>
       <c r="G93" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="H93" s="10"/>
-      <c r="I93" s="33" t="s">
-        <v>187</v>
-      </c>
-      <c r="J93" s="34"/>
+        <v>243</v>
+      </c>
+      <c r="H93" s="10" t="s">
+        <v>328</v>
+      </c>
+      <c r="I93" s="13"/>
+      <c r="J93" s="13" t="s">
+        <v>191</v>
+      </c>
       <c r="K93" s="4" t="s">
         <v>167</v>
       </c>
       <c r="L93" s="13" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12" ht="24">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" ht="36">
       <c r="F94" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G94" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="H94" s="10"/>
+        <v>243</v>
+      </c>
+      <c r="H94" s="10" t="s">
+        <v>326</v>
+      </c>
       <c r="I94" s="13"/>
       <c r="J94" s="13" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="K94" s="4" t="s">
         <v>167</v>
       </c>
       <c r="L94" s="13" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
     </row>
     <row r="95" spans="1:12" ht="24">
       <c r="F95" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G95" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="H95" s="10"/>
+        <v>243</v>
+      </c>
+      <c r="H95" s="10" t="s">
+        <v>335</v>
+      </c>
       <c r="I95" s="13"/>
       <c r="J95" s="13" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="K95" s="4" t="s">
         <v>167</v>
       </c>
       <c r="L95" s="13" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="96" spans="1:12" ht="24">
       <c r="F96" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G96" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="H96" s="10"/>
-      <c r="I96" s="13"/>
-      <c r="J96" s="13" t="s">
-        <v>190</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="H96" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="I96" s="26" t="s">
+        <v>204</v>
+      </c>
+      <c r="J96" s="28"/>
       <c r="K96" s="4" t="s">
         <v>167</v>
       </c>
       <c r="L96" s="13" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="97" spans="6:12" ht="24">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="97" spans="6:12" ht="36">
       <c r="F97" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G97" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="H97" s="10"/>
+        <v>243</v>
+      </c>
+      <c r="H97" s="10" t="s">
+        <v>354</v>
+      </c>
       <c r="I97" s="13"/>
       <c r="J97" s="13" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="K97" s="4" t="s">
         <v>167</v>
       </c>
       <c r="L97" s="13" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="98" spans="6:12" ht="24">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="98" spans="6:12" ht="36">
       <c r="F98" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G98" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="H98" s="10"/>
+        <v>243</v>
+      </c>
+      <c r="H98" s="10" t="s">
+        <v>355</v>
+      </c>
       <c r="I98" s="13"/>
       <c r="J98" s="13" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K98" s="4" t="s">
         <v>167</v>
       </c>
       <c r="L98" s="13" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="99" spans="6:12" ht="24">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="99" spans="6:12" ht="36">
       <c r="F99" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G99" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="H99" s="10"/>
+        <v>243</v>
+      </c>
+      <c r="H99" s="10" t="s">
+        <v>356</v>
+      </c>
       <c r="I99" s="13"/>
       <c r="J99" s="13" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="K99" s="4" t="s">
         <v>167</v>
       </c>
       <c r="L99" s="13" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="100" spans="6:12" ht="24">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="100" spans="6:12" ht="36">
       <c r="F100" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G100" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="H100" s="10"/>
+        <v>243</v>
+      </c>
+      <c r="H100" s="10" t="s">
+        <v>357</v>
+      </c>
       <c r="I100" s="13"/>
       <c r="J100" s="13" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="K100" s="4" t="s">
         <v>167</v>
       </c>
       <c r="L100" s="13" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="101" spans="6:12" ht="24">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="101" spans="6:12" ht="36">
       <c r="F101" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G101" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="H101" s="10"/>
-      <c r="I101" s="31" t="s">
-        <v>194</v>
-      </c>
-      <c r="J101" s="32"/>
+        <v>243</v>
+      </c>
+      <c r="H101" s="10" t="s">
+        <v>344</v>
+      </c>
+      <c r="I101" s="13"/>
+      <c r="J101" s="13" t="s">
+        <v>197</v>
+      </c>
       <c r="K101" s="4" t="s">
         <v>167</v>
       </c>
@@ -3988,441 +4289,466 @@
         <v>225</v>
       </c>
     </row>
-    <row r="102" spans="6:12" ht="24">
+    <row r="102" spans="6:12">
       <c r="F102" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G102" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="H102" s="10"/>
-      <c r="I102" s="31" t="s">
-        <v>206</v>
-      </c>
-      <c r="J102" s="35"/>
-      <c r="K102" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="L102" s="13" t="s">
-        <v>226</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="H102" s="10" t="s">
+        <v>347</v>
+      </c>
+      <c r="I102" s="24" t="s">
+        <v>346</v>
+      </c>
+      <c r="J102" s="13"/>
+      <c r="L102" s="13"/>
     </row>
     <row r="103" spans="6:12" ht="36">
       <c r="F103" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G103" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="H103" s="10"/>
-      <c r="I103" s="13"/>
+        <v>243</v>
+      </c>
+      <c r="H103" s="10" t="s">
+        <v>345</v>
+      </c>
+      <c r="I103" s="13" t="s">
+        <v>203</v>
+      </c>
       <c r="J103" s="13" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="K103" s="4" t="s">
         <v>167</v>
       </c>
       <c r="L103" s="13" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
     </row>
     <row r="104" spans="6:12" ht="36">
       <c r="F104" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G104" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="H104" s="10"/>
+        <v>243</v>
+      </c>
+      <c r="H104" s="10" t="s">
+        <v>348</v>
+      </c>
       <c r="I104" s="13"/>
       <c r="J104" s="13" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="K104" s="4" t="s">
         <v>167</v>
       </c>
       <c r="L104" s="13" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="105" spans="6:12" ht="36">
       <c r="F105" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G105" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="H105" s="10"/>
+        <v>243</v>
+      </c>
+      <c r="H105" s="10" t="s">
+        <v>349</v>
+      </c>
       <c r="I105" s="13"/>
       <c r="J105" s="13" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="K105" s="4" t="s">
         <v>167</v>
       </c>
       <c r="L105" s="13" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="106" spans="6:12" ht="36">
       <c r="F106" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G106" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="H106" s="10"/>
+        <v>243</v>
+      </c>
+      <c r="H106" s="10" t="s">
+        <v>350</v>
+      </c>
       <c r="I106" s="13"/>
       <c r="J106" s="13" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="K106" s="4" t="s">
         <v>167</v>
       </c>
       <c r="L106" s="13" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="107" spans="6:12" ht="36">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="107" spans="6:12" ht="24">
       <c r="F107" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G107" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="H107" s="10"/>
+        <v>243</v>
+      </c>
+      <c r="H107" s="10" t="s">
+        <v>351</v>
+      </c>
       <c r="I107" s="13"/>
       <c r="J107" s="13" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="K107" s="4" t="s">
         <v>167</v>
       </c>
       <c r="L107" s="13" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="108" spans="6:12" ht="36">
       <c r="F108" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G108" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="H108" s="10"/>
-      <c r="I108" s="23" t="s">
+        <v>243</v>
+      </c>
+      <c r="H108" s="10" t="s">
+        <v>352</v>
+      </c>
+      <c r="I108" s="26" t="s">
         <v>205</v>
       </c>
-      <c r="J108" s="13" t="s">
-        <v>200</v>
-      </c>
+      <c r="J108" s="27"/>
       <c r="K108" s="4" t="s">
         <v>167</v>
       </c>
       <c r="L108" s="13" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="109" spans="6:12" ht="36">
       <c r="F109" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G109" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="H109" s="10"/>
+        <v>243</v>
+      </c>
+      <c r="H109" s="10" t="s">
+        <v>340</v>
+      </c>
       <c r="I109" s="13"/>
       <c r="J109" s="13" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="K109" s="4" t="s">
         <v>167</v>
       </c>
       <c r="L109" s="13" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="110" spans="6:12" ht="36">
       <c r="F110" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G110" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="H110" s="10"/>
+        <v>243</v>
+      </c>
+      <c r="H110" s="10" t="s">
+        <v>341</v>
+      </c>
       <c r="I110" s="13"/>
       <c r="J110" s="13" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="K110" s="4" t="s">
         <v>167</v>
       </c>
       <c r="L110" s="13" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="111" spans="6:12" ht="36">
       <c r="F111" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G111" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="H111" s="10"/>
+        <v>243</v>
+      </c>
+      <c r="H111" s="10" t="s">
+        <v>342</v>
+      </c>
       <c r="I111" s="13"/>
       <c r="J111" s="13" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="K111" s="4" t="s">
         <v>167</v>
       </c>
       <c r="L111" s="13" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="112" spans="6:12" ht="24">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="112" spans="6:12" ht="36">
       <c r="F112" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G112" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="H112" s="10"/>
+        <v>243</v>
+      </c>
+      <c r="H112" s="10" t="s">
+        <v>343</v>
+      </c>
       <c r="I112" s="13"/>
       <c r="J112" s="13" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="K112" s="4" t="s">
         <v>167</v>
       </c>
       <c r="L112" s="13" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="113" spans="6:12" ht="36">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="113" spans="5:12" ht="24">
       <c r="F113" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="G113" s="10" t="s">
-        <v>247</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="G113" s="10"/>
       <c r="H113" s="10"/>
-      <c r="I113" s="31" t="s">
+      <c r="I113" s="26" t="s">
         <v>207</v>
       </c>
-      <c r="J113" s="32"/>
+      <c r="J113" s="27"/>
       <c r="K113" s="4" t="s">
         <v>167</v>
       </c>
       <c r="L113" s="13" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="114" spans="6:12" ht="36">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="114" spans="5:12" ht="24">
       <c r="F114" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="G114" s="10" t="s">
-        <v>247</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="G114" s="10"/>
       <c r="H114" s="10"/>
       <c r="I114" s="13"/>
       <c r="J114" s="13" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="K114" s="4" t="s">
         <v>167</v>
       </c>
       <c r="L114" s="13" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="115" spans="6:12" ht="36">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="115" spans="5:12" ht="24">
       <c r="F115" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="G115" s="10" t="s">
-        <v>247</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="G115" s="10"/>
       <c r="H115" s="10"/>
       <c r="I115" s="13"/>
       <c r="J115" s="13" t="s">
-        <v>195</v>
+        <v>209</v>
       </c>
       <c r="K115" s="4" t="s">
         <v>167</v>
       </c>
       <c r="L115" s="13" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="116" spans="6:12" ht="36">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="116" spans="5:12" ht="24">
       <c r="F116" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="G116" s="10" t="s">
-        <v>247</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="G116" s="10"/>
       <c r="H116" s="10"/>
       <c r="I116" s="13"/>
       <c r="J116" s="13" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="K116" s="4" t="s">
         <v>167</v>
       </c>
       <c r="L116" s="13" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="117" spans="6:12" ht="36">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="117" spans="5:12" ht="24">
       <c r="F117" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="G117" s="10" t="s">
-        <v>247</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="G117" s="10"/>
       <c r="H117" s="10"/>
       <c r="I117" s="13"/>
       <c r="J117" s="13" t="s">
-        <v>198</v>
+        <v>211</v>
       </c>
       <c r="K117" s="4" t="s">
         <v>167</v>
       </c>
       <c r="L117" s="13" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="118" spans="6:12" ht="24">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="118" spans="5:12" ht="24">
       <c r="F118" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G118" s="10"/>
       <c r="H118" s="10"/>
-      <c r="I118" s="31" t="s">
-        <v>209</v>
-      </c>
-      <c r="J118" s="32"/>
+      <c r="I118" s="26" t="s">
+        <v>212</v>
+      </c>
+      <c r="J118" s="27"/>
       <c r="K118" s="4" t="s">
         <v>167</v>
       </c>
       <c r="L118" s="13" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="119" spans="6:12" ht="24">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="119" spans="5:12" ht="24">
       <c r="F119" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G119" s="10"/>
       <c r="H119" s="10"/>
       <c r="I119" s="13"/>
       <c r="J119" s="13" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="K119" s="4" t="s">
         <v>167</v>
       </c>
       <c r="L119" s="13" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="120" spans="6:12" ht="24">
-      <c r="F120" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="G120" s="10"/>
+        <v>242</v>
+      </c>
+    </row>
+    <row r="120" spans="5:12">
+      <c r="E120" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="G120" s="10" t="s">
+        <v>243</v>
+      </c>
       <c r="H120" s="10"/>
-      <c r="I120" s="13"/>
-      <c r="J120" s="13" t="s">
-        <v>211</v>
-      </c>
-      <c r="K120" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="L120" s="13" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="121" spans="6:12" ht="24">
-      <c r="F121" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="G121" s="10"/>
-      <c r="H121" s="10"/>
-      <c r="I121" s="13"/>
-      <c r="J121" s="13" t="s">
-        <v>212</v>
+      <c r="I120" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="J120" s="31"/>
+      <c r="K120" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="L120" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="121" spans="5:12">
+      <c r="E121" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="G121" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="H121" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="I121" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="J121" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="K121" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="L121" s="13" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="122" spans="6:12" ht="24">
-      <c r="F122" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="G122" s="10"/>
-      <c r="H122" s="10"/>
-      <c r="I122" s="13"/>
-      <c r="J122" s="13" t="s">
-        <v>213</v>
+        <v>46</v>
+      </c>
+      <c r="L121" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="122" spans="5:12">
+      <c r="E122" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="G122" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="H122" s="10" t="s">
+        <v>337</v>
+      </c>
+      <c r="I122" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J122" s="4" t="s">
+        <v>81</v>
       </c>
       <c r="K122" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="L122" s="13" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="123" spans="6:12" ht="24">
-      <c r="F123" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="G123" s="10"/>
-      <c r="H123" s="10"/>
-      <c r="I123" s="31" t="s">
-        <v>214</v>
-      </c>
-      <c r="J123" s="32"/>
+        <v>13</v>
+      </c>
+      <c r="L122" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="123" spans="5:12">
+      <c r="E123" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="G123" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="H123" s="10" t="s">
+        <v>338</v>
+      </c>
+      <c r="I123" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="J123" s="4" t="s">
+        <v>155</v>
+      </c>
       <c r="K123" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="L123" s="13" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="124" spans="6:12" ht="24">
-      <c r="F124" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="G124" s="10"/>
-      <c r="H124" s="10"/>
-      <c r="I124" s="13"/>
-      <c r="J124" s="13" t="s">
-        <v>205</v>
+        <v>125</v>
+      </c>
+      <c r="L123" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="124" spans="5:12" ht="24">
+      <c r="E124" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="G124" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="H124" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="I124" s="20"/>
+      <c r="J124" s="4" t="s">
+        <v>147</v>
       </c>
       <c r="K124" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="L124" s="13" t="s">
-        <v>246</v>
+        <v>137</v>
+      </c>
+      <c r="L124" s="4" t="s">
+        <v>167</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="I123:J123"/>
-    <mergeCell ref="I93:J93"/>
-    <mergeCell ref="I101:J101"/>
-    <mergeCell ref="I102:J102"/>
-    <mergeCell ref="I113:J113"/>
-    <mergeCell ref="I118:J118"/>
+  <mergeCells count="13">
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="I88:J88"/>
+    <mergeCell ref="I120:J120"/>
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="I18:J18"/>
     <mergeCell ref="I21:J21"/>
@@ -4430,6 +4756,10 @@
     <mergeCell ref="I80:J80"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I118:J118"/>
+    <mergeCell ref="I96:J96"/>
+    <mergeCell ref="I108:J108"/>
+    <mergeCell ref="I113:J113"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
